--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunyan/Calios_Tmp/private/projects/a_camp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunyan/go/src/one-more-step-in-algo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,15 @@
   </si>
   <si>
     <t>4th</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sudoku-solver/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-sudoku/</t>
   </si>
 </sst>
 </file>
@@ -667,7 +676,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,7 +713,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,44 +752,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,10 +1097,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1109,8 +1112,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1120,8 +1123,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1131,8 +1134,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1142,8 +1145,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1155,8 +1158,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1169,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1177,8 +1180,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1188,8 +1191,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1199,8 +1202,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1212,8 +1215,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1223,8 +1226,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1234,8 +1237,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1245,8 +1248,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1256,8 +1259,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1270,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1278,10 +1281,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1293,8 +1296,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1304,8 +1307,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1317,8 +1320,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1331,8 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1341,8 +1344,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1567,10 +1570,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1582,8 +1585,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1593,8 +1596,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1604,10 +1607,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1619,8 +1622,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1630,8 +1633,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1641,8 +1644,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1652,8 +1655,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1663,10 +1666,10 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1678,8 +1681,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1689,8 +1692,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1700,8 +1703,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1711,8 +1714,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1722,8 +1725,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1733,8 +1736,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1744,8 +1747,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1757,8 +1760,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
@@ -1768,8 +1771,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
@@ -1779,8 +1782,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
@@ -1790,8 +1793,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1801,10 +1804,10 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1816,8 +1819,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>47</v>
       </c>
@@ -1827,8 +1830,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1840,8 +1843,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -1851,8 +1854,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
@@ -1954,10 +1957,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1969,8 +1972,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
@@ -1980,8 +1983,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
@@ -1991,8 +1994,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
@@ -2002,8 +2005,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2015,8 +2018,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
@@ -2026,8 +2029,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
@@ -2037,8 +2040,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
@@ -2048,7 +2051,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2063,8 +2066,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2076,8 +2079,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2087,8 +2090,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
@@ -2098,8 +2101,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
@@ -2109,8 +2112,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
@@ -2120,8 +2123,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
@@ -2131,10 +2134,10 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2146,8 +2149,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>74</v>
       </c>
@@ -2157,8 +2160,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2170,8 +2173,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2181,8 +2184,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
@@ -2244,7 +2247,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2278,13 +2281,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D2" s="6"/>
@@ -2293,9 +2296,9 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="14" t="s">
         <v>92</v>
       </c>
       <c r="D3" s="6"/>
@@ -2304,9 +2307,9 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D4" s="6"/>
@@ -2315,9 +2318,9 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="6"/>
@@ -2326,9 +2329,9 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="6"/>
@@ -2337,9 +2340,9 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="10"/>
@@ -2348,9 +2351,9 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="D8" s="11"/>
@@ -2359,9 +2362,9 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="11"/>
@@ -2370,9 +2373,9 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="6"/>
@@ -2381,9 +2384,9 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D11" s="6"/>
@@ -2392,9 +2395,9 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="6"/>
@@ -2403,9 +2406,9 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D13" s="6"/>
@@ -2414,9 +2417,9 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D14" s="6"/>
@@ -2425,9 +2428,9 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D15" s="6"/>
@@ -2436,9 +2439,9 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="6"/>
@@ -2447,11 +2450,11 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="6"/>
@@ -2460,9 +2463,9 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="6"/>
@@ -2471,9 +2474,9 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="20" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="14" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="6"/>
@@ -2482,9 +2485,9 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="14" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="10"/>
@@ -2493,9 +2496,9 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="10"/>
@@ -2504,9 +2507,9 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="14" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="10"/>
@@ -2515,9 +2518,9 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="20" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="10"/>
@@ -2526,9 +2529,9 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="20" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="10"/>
@@ -2537,9 +2540,9 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="20" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="10"/>
@@ -2548,9 +2551,9 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
       <c r="D26" s="10"/>
@@ -2559,9 +2562,9 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="10"/>
@@ -2570,9 +2573,9 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D28" s="10"/>
@@ -2581,9 +2584,9 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="10"/>
@@ -2642,14 +2645,14 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F21" sqref="F21:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="86.5" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2662,8 +2665,8 @@
       <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
+      <c r="D1" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>128</v>
@@ -2676,89 +2679,101 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="18">
+        <v>43789</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="18">
+        <v>43789</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="18">
+        <v>43789</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="18">
+        <v>43789</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2766,8 +2781,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2775,109 +2790,96 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2891,17 +2893,14 @@
     <mergeCell ref="B17:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D26">
-      <formula1>"已完成,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" location="/description"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5280" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="4"/>
+    <workbookView xWindow="8780" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="week5" sheetId="5" r:id="rId4"/>
     <sheet name="week6" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">week5!$D$1:$D$29</definedName>
+  </definedNames>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第12课</t>
   </si>
   <si>
@@ -485,9 +484,6 @@
     <t>字典树和并查集</t>
   </si>
   <si>
-    <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree/#/description</t>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/word-search-ii/</t>
   </si>
   <si>
@@ -522,6 +518,15 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sliding-puzzle/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree/</t>
   </si>
 </sst>
 </file>
@@ -676,7 +681,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,17 +718,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,7 +751,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,15 +1064,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="70.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="4" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1083,70 +1086,114 @@
       <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
+      <c r="D1" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="D2" s="15">
+        <v>43791</v>
+      </c>
+      <c r="E2" s="15">
+        <f>D2+1</f>
+        <v>43792</v>
+      </c>
+      <c r="F2" s="15">
+        <f>D2+7</f>
+        <v>43798</v>
+      </c>
+      <c r="G2" s="15">
+        <f>D2+30</f>
+        <v>43821</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="D3" s="15">
+        <v>43791</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E5" si="0">D3+1</f>
+        <v>43792</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F5" si="1">D3+7</f>
+        <v>43798</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G5" si="2">D3+30</f>
+        <v>43821</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="D4" s="15">
+        <v>43791</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="0"/>
+        <v>43792</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="1"/>
+        <v>43798</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" si="2"/>
+        <v>43821</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="D5" s="15">
+        <v>43791</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="0"/>
+        <v>43792</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="1"/>
+        <v>43798</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="2"/>
+        <v>43821</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1158,8 +1205,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1169,8 +1216,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1180,8 +1227,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1191,8 +1238,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1202,8 +1249,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1215,8 +1262,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1226,8 +1273,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1237,8 +1284,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1248,8 +1295,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1259,8 +1306,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1270,8 +1317,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1281,10 +1328,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1296,8 +1343,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1307,8 +1354,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1320,8 +1367,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1378,8 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1344,8 +1391,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1497,11 +1544,6 @@
     <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"已完成,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -1535,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G14"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,24 +1598,24 @@
       <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
+      <c r="D1" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1585,8 +1627,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1596,8 +1638,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1607,10 +1649,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1622,8 +1664,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1675,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1644,8 +1686,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1655,8 +1697,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1666,10 +1708,10 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="16" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1681,8 +1723,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1692,8 +1734,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1703,8 +1745,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1714,8 +1756,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1725,8 +1767,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1736,8 +1778,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1747,8 +1789,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1760,8 +1802,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
@@ -1771,8 +1813,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
@@ -1782,8 +1824,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
@@ -1793,8 +1835,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1804,10 +1846,10 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1819,8 +1861,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="7" t="s">
         <v>47</v>
       </c>
@@ -1830,8 +1872,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1843,8 +1885,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -1854,8 +1896,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
@@ -1881,11 +1923,6 @@
     <mergeCell ref="B24:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"已完成,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -1922,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G14" sqref="E1:G14"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1943,24 +1980,24 @@
       <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>88</v>
+      <c r="D1" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1972,8 +2009,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
@@ -1983,8 +2020,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
@@ -1994,8 +2031,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
@@ -2005,8 +2042,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2018,8 +2055,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
@@ -2029,8 +2066,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
@@ -2040,8 +2077,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
@@ -2051,7 +2088,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2066,8 +2103,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2079,8 +2116,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2090,8 +2127,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
@@ -2101,8 +2138,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
@@ -2112,8 +2149,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
@@ -2123,8 +2160,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
@@ -2134,10 +2171,10 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2149,8 +2186,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7" t="s">
         <v>74</v>
       </c>
@@ -2160,8 +2197,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2173,8 +2210,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2184,8 +2221,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
@@ -2210,11 +2247,6 @@
     <mergeCell ref="B6:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"已完成,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -2246,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2267,28 +2299,28 @@
       <c r="C1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -2296,10 +2328,10 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="14" t="s">
-        <v>92</v>
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2307,10 +2339,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="14" t="s">
-        <v>93</v>
+      <c r="A4" s="20"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2318,10 +2350,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="14" t="s">
-        <v>107</v>
+      <c r="A5" s="20"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2329,10 +2361,10 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
-        <v>108</v>
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2340,10 +2372,10 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
-        <v>109</v>
+      <c r="A7" s="20"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="6"/>
@@ -2351,10 +2383,10 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="14" t="s">
-        <v>110</v>
+      <c r="A8" s="20"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="6"/>
@@ -2362,10 +2394,10 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="14" t="s">
-        <v>111</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="6"/>
@@ -2373,10 +2405,10 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="14" t="s">
-        <v>112</v>
+      <c r="A10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2384,10 +2416,10 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14" t="s">
-        <v>113</v>
+      <c r="A11" s="20"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2395,10 +2427,10 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14" t="s">
-        <v>114</v>
+      <c r="A12" s="20"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -2406,10 +2438,10 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14" t="s">
-        <v>115</v>
+      <c r="A13" s="20"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -2417,10 +2449,10 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14" t="s">
-        <v>116</v>
+      <c r="A14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -2428,10 +2460,10 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14" t="s">
-        <v>117</v>
+      <c r="A15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -2439,10 +2471,10 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="14" t="s">
-        <v>118</v>
+      <c r="A16" s="20"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -2450,12 +2482,12 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
+      <c r="C17" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -2463,10 +2495,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="14" t="s">
-        <v>95</v>
+      <c r="A18" s="20"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2474,10 +2506,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14" t="s">
-        <v>96</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -2485,10 +2517,10 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="14" t="s">
-        <v>97</v>
+      <c r="A20" s="20"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="6"/>
@@ -2496,10 +2528,10 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14" t="s">
-        <v>98</v>
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="6"/>
@@ -2507,10 +2539,10 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="14" t="s">
-        <v>99</v>
+      <c r="A22" s="20"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
@@ -2518,10 +2550,10 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14" t="s">
-        <v>100</v>
+      <c r="A23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -2529,10 +2561,10 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="14" t="s">
-        <v>101</v>
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="6"/>
@@ -2540,10 +2572,10 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14" t="s">
-        <v>102</v>
+      <c r="A25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
@@ -2551,10 +2583,10 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14" t="s">
-        <v>103</v>
+      <c r="A26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="6"/>
@@ -2562,10 +2594,10 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="14" t="s">
-        <v>104</v>
+      <c r="A27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="6"/>
@@ -2573,10 +2605,10 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14" t="s">
-        <v>105</v>
+      <c r="A28" s="20"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
@@ -2584,10 +2616,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="14" t="s">
-        <v>106</v>
+      <c r="A29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="6"/>
@@ -2601,11 +2633,6 @@
     <mergeCell ref="A2:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D20:D29">
-      <formula1>"已完成,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
@@ -2637,6 +2664,7 @@
     <hyperlink ref="C16" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2644,15 +2672,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="86.5" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2666,29 +2695,29 @@
         <v>26</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="C2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="15">
         <v>43789</v>
       </c>
       <c r="E2" s="6"/>
@@ -2696,12 +2725,12 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="18">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="15">
         <v>43789</v>
       </c>
       <c r="E3" s="6"/>
@@ -2709,62 +2738,70 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="15">
         <v>43789</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="15">
+        <v>43791</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="15">
         <v>43789</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="15">
+        <v>43791</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43791</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="A7" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43791</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="26" t="s">
-        <v>132</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2772,114 +2809,122 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12" t="s">
+        <v>132</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="17"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="17"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2888,19 +2933,21 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="/description"/>
+    <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="4"/>
+    <workbookView xWindow="13920" yWindow="-21140" windowWidth="19200" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="week3" sheetId="3" r:id="rId3"/>
     <sheet name="week5" sheetId="5" r:id="rId4"/>
     <sheet name="week6" sheetId="4" r:id="rId5"/>
+    <sheet name="week7" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">week5!$D$1:$D$29</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,6 +528,51 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
+    <t>布隆过滤器和LRU缓存</t>
+  </si>
+  <si>
+    <t>排序算法</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-1-bits/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/power-of-two/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-bits/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/n-queens-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/counting-bits/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/lru-cache/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/relative-sort-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-a-leaderboard/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-intervals/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-pairs/</t>
   </si>
 </sst>
 </file>
@@ -730,6 +776,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,15 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1146,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1126,74 +1172,41 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15">
-        <v>43791</v>
-      </c>
-      <c r="E3" s="15">
-        <f t="shared" ref="E3:E5" si="0">D3+1</f>
-        <v>43792</v>
-      </c>
-      <c r="F3" s="15">
-        <f t="shared" ref="F3:F5" si="1">D3+7</f>
-        <v>43798</v>
-      </c>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G5" si="2">D3+30</f>
-        <v>43821</v>
-      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
-        <v>43791</v>
-      </c>
-      <c r="E4" s="15">
-        <f t="shared" si="0"/>
-        <v>43792</v>
-      </c>
-      <c r="F4" s="15">
-        <f t="shared" si="1"/>
-        <v>43798</v>
-      </c>
-      <c r="G4" s="15">
-        <f t="shared" si="2"/>
-        <v>43821</v>
-      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="15">
-        <v>43791</v>
-      </c>
-      <c r="E5" s="15">
-        <f t="shared" si="0"/>
-        <v>43792</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="1"/>
-        <v>43798</v>
-      </c>
-      <c r="G5" s="15">
-        <f t="shared" si="2"/>
-        <v>43821</v>
-      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1205,8 +1218,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1216,8 +1229,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1227,8 +1240,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1238,8 +1251,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1249,8 +1262,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1262,8 +1275,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1273,8 +1286,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
@@ -1284,8 +1297,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1308,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1319,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="5" t="s">
         <v>4</v>
       </c>
@@ -1317,8 +1330,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1328,10 +1341,10 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1343,8 +1356,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
@@ -1354,8 +1367,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1367,8 +1380,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1378,8 +1391,8 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1391,8 +1404,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>20</v>
       </c>
@@ -1612,10 +1625,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1627,8 +1640,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
@@ -1638,8 +1651,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
@@ -1649,10 +1662,10 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1664,8 +1677,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1675,8 +1688,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>33</v>
       </c>
@@ -1686,8 +1699,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
@@ -1697,8 +1710,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
@@ -1708,10 +1721,10 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1723,8 +1736,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
@@ -1734,8 +1747,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
@@ -1745,8 +1758,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
@@ -1756,8 +1769,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
@@ -1767,8 +1780,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
@@ -1778,8 +1791,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
@@ -1789,8 +1802,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1802,8 +1815,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
@@ -1813,8 +1826,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
@@ -1824,8 +1837,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
@@ -1835,8 +1848,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
@@ -1846,10 +1859,10 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1861,8 +1874,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="7" t="s">
         <v>47</v>
       </c>
@@ -1872,8 +1885,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -1885,8 +1898,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -1896,8 +1909,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
@@ -1994,10 +2007,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2009,8 +2022,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="7" t="s">
         <v>60</v>
       </c>
@@ -2020,8 +2033,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2031,8 +2044,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
@@ -2042,8 +2055,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2055,8 +2068,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
@@ -2066,8 +2079,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
         <v>65</v>
       </c>
@@ -2077,8 +2090,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2101,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2103,8 +2116,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2116,8 +2129,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7" t="s">
         <v>69</v>
       </c>
@@ -2127,8 +2140,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="7" t="s">
         <v>70</v>
       </c>
@@ -2138,8 +2151,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7" t="s">
         <v>71</v>
       </c>
@@ -2149,8 +2162,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="7" t="s">
         <v>72</v>
       </c>
@@ -2160,8 +2173,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
@@ -2171,10 +2184,10 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>79</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -2186,8 +2199,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7" t="s">
         <v>74</v>
       </c>
@@ -2197,8 +2210,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -2210,8 +2223,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
@@ -2221,8 +2234,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="7" t="s">
         <v>78</v>
       </c>
@@ -2313,10 +2326,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2328,8 +2341,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
@@ -2339,8 +2352,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="12" t="s">
         <v>92</v>
       </c>
@@ -2350,8 +2363,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>106</v>
       </c>
@@ -2361,8 +2374,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
         <v>107</v>
       </c>
@@ -2372,8 +2385,8 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="12" t="s">
         <v>108</v>
       </c>
@@ -2383,8 +2396,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="12" t="s">
         <v>109</v>
       </c>
@@ -2394,8 +2407,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
       </c>
@@ -2405,8 +2418,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="12" t="s">
         <v>111</v>
       </c>
@@ -2416,8 +2429,8 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="12" t="s">
         <v>112</v>
       </c>
@@ -2427,8 +2440,8 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="12" t="s">
         <v>113</v>
       </c>
@@ -2438,8 +2451,8 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="12" t="s">
         <v>114</v>
       </c>
@@ -2449,8 +2462,8 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="12" t="s">
         <v>115</v>
       </c>
@@ -2460,8 +2473,8 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="12" t="s">
         <v>116</v>
       </c>
@@ -2471,8 +2484,8 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="12" t="s">
         <v>117</v>
       </c>
@@ -2482,8 +2495,8 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2495,8 +2508,8 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="12" t="s">
         <v>94</v>
       </c>
@@ -2506,8 +2519,8 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="12" t="s">
         <v>95</v>
       </c>
@@ -2517,8 +2530,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="12" t="s">
         <v>96</v>
       </c>
@@ -2528,8 +2541,8 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="12" t="s">
         <v>97</v>
       </c>
@@ -2539,8 +2552,8 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="12" t="s">
         <v>98</v>
       </c>
@@ -2550,8 +2563,8 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="12" t="s">
         <v>99</v>
       </c>
@@ -2561,8 +2574,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="12" t="s">
         <v>100</v>
       </c>
@@ -2572,8 +2585,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="12" t="s">
         <v>101</v>
       </c>
@@ -2583,8 +2596,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="12" t="s">
         <v>102</v>
       </c>
@@ -2594,8 +2607,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="12" t="s">
         <v>103</v>
       </c>
@@ -2605,8 +2618,8 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="12" t="s">
         <v>104</v>
       </c>
@@ -2616,8 +2629,8 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="12" t="s">
         <v>105</v>
       </c>
@@ -2672,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2708,10 +2721,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>119</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -2725,8 +2738,8 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="12" t="s">
         <v>120</v>
       </c>
@@ -2738,8 +2751,8 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="12" t="s">
         <v>121</v>
       </c>
@@ -2753,8 +2766,8 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
         <v>122</v>
       </c>
@@ -2768,8 +2781,8 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
         <v>123</v>
       </c>
@@ -2781,10 +2794,10 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -2798,8 +2811,8 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="12" t="s">
         <v>130</v>
       </c>
@@ -2809,8 +2822,8 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
         <v>132</v>
       </c>
@@ -2820,8 +2833,8 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="12" t="s">
         <v>133</v>
       </c>
@@ -2831,40 +2844,40 @@
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
@@ -2878,52 +2891,52 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
-      <c r="B17" s="22"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="13"/>
-      <c r="B21" s="22"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="14"/>
     </row>
   </sheetData>
@@ -2951,4 +2964,189 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="86.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="-21140" windowWidth="19200" windowHeight="21140"/>
+    <workbookView xWindow="-5280" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:G5"/>
     </sheetView>
   </sheetViews>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3009,7 +3009,9 @@
       <c r="B2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="15">
+        <v>43798</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>

--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5280" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="5"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G6"/>
+      <selection activeCell="C29" sqref="C29:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2971,7 +2971,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3021,7 +3021,9 @@
       <c r="B3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="15">
+        <v>43800</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -3031,7 +3033,9 @@
       <c r="B4" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15">
+        <v>43800</v>
+      </c>
       <c r="D4" s="15"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -3051,7 +3055,9 @@
       <c r="B6" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15">
+        <v>43800</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>

--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" activeTab="5"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="week1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="week5" sheetId="5" r:id="rId4"/>
     <sheet name="week6" sheetId="4" r:id="rId5"/>
     <sheet name="week7" sheetId="6" r:id="rId6"/>
+    <sheet name="week8" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">week5!$D$1:$D$29</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="185">
   <si>
     <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,6 +574,111 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/reverse-pairs/</t>
+  </si>
+  <si>
+    <t>高级动态规划</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/decode-ways/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximal-rectangle/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/race-car/</t>
+  </si>
+  <si>
+    <t>字符串基础问题</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/to-lower-case/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/length-of-last-word/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jewels-and-stones/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/first-unique-character-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/string-to-integer-atoi/</t>
+  </si>
+  <si>
+    <t>字符串操作问题</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-common-prefix/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-string-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-words-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-words-in-a-string-iii/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reverse-only-letters/</t>
+  </si>
+  <si>
+    <t>异位词问题</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>回文串问题</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/valid-palindrome-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-palindromic-substring/</t>
+  </si>
+  <si>
+    <t>最长子串、子序列问题</t>
+  </si>
+  <si>
+    <t>字符串+DP问题</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/solution/ji-yu-guan-fang-ti-jie-gen-xiang-xi-de-jiang-jie-b/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/wildcard-matching/</t>
+  </si>
+  <si>
+    <t>字符串课后作业</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/isomorphic-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/wildcard-matching</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-valid-parentheses</t>
   </si>
 </sst>
 </file>
@@ -727,7 +833,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +910,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2970,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3157,4 +3266,546 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="86.5" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="B10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/算法训练营题目汇总.xlsx
+++ b/算法训练营题目汇总.xlsx
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G5"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection sqref="A1:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1699,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2400,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2794,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C30"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3080,7 +3080,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="A2" sqref="A2:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3272,8 +3272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
